--- a/bots/crawl_ch/output/bread_coop_2022-12-30.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-30.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14085,7 +14085,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14296,7 +14296,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15440,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16175,7 +16175,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E222" t="n">
         <v>4.5</v>
@@ -16223,7 +16223,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16430,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16856,7 +16856,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -16998,7 +16998,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17418,7 +17418,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17487,7 +17487,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19102,7 +19102,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19317,7 +19317,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19386,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19524,7 +19524,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19664,7 +19664,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20094,7 +20094,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20161,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21727,7 +21727,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21796,7 +21796,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22588,10 +22588,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E313" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25917,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26061,7 +26061,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26414,7 +26414,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26844,7 +26844,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26917,7 +26917,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -26986,7 +26986,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27059,7 +27059,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27126,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27199,7 +27199,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27268,7 +27268,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27335,7 +27335,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27544,7 +27544,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27753,7 +27753,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27822,7 +27822,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28031,7 +28031,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-30 06:49:27</t>
+          <t>2022-12-30 12:55:45</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2022-12-30.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-30.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Ölz Super Soft Sandwich 4.10 Schweizer Franken</t>
+          <t>Ölz Super Soft Sandwich - Online kein Bestand 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorntoast 10 Scheiben 2.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkorntoast 10 Scheiben - Online kein Bestand 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1506,13 +1506,13 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Buttertoast 10 Scheiben 1.95 Schweizer Franken</t>
+          <t>Buttertoast 10 Scheiben - Online kein Bestand 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3916,13 +3916,13 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Ölz Premium Buttertoast 500g 3.80 Schweizer Franken</t>
+          <t>Ölz Premium Buttertoast 500g - Online kein Bestand 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14085,7 +14085,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14296,7 +14296,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15440,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16430,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16856,7 +16856,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -16998,7 +16998,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17418,7 +17418,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17487,7 +17487,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -18964,7 +18964,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19102,7 +19102,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19317,7 +19317,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19386,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19524,7 +19524,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19664,7 +19664,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20094,7 +20094,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20161,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21727,7 +21727,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21796,7 +21796,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25917,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26061,7 +26061,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26414,7 +26414,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26844,7 +26844,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26917,7 +26917,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -26986,7 +26986,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27059,7 +27059,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27126,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27199,7 +27199,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27268,7 +27268,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27335,7 +27335,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27544,7 +27544,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27753,7 +27753,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27822,7 +27822,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28031,7 +28031,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-30 12:55:45</t>
+          <t>2022-12-30 20:49:30</t>
         </is>
       </c>
     </row>
